--- a/Container_Tracking.xlsx
+++ b/Container_Tracking.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="118">
   <si>
     <t>unitid</t>
   </si>
@@ -83,6 +83,156 @@
     <t>destinationcountry</t>
   </si>
   <si>
+    <t>FDCU0441881</t>
+  </si>
+  <si>
+    <t>SEASPAN THAMES</t>
+  </si>
+  <si>
+    <t>011E</t>
+  </si>
+  <si>
+    <t>WO60801</t>
+  </si>
+  <si>
+    <t>CHOLM91571596</t>
+  </si>
+  <si>
+    <t>ONEYNB9BF2744516</t>
+  </si>
+  <si>
+    <t>Port of Savannah</t>
+  </si>
+  <si>
+    <t>Port of Yantian Pt</t>
+  </si>
+  <si>
+    <t>Yantian Pt</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>20836b2b-8057-46e1-8838-fa2e7c36c8fa</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UNIT2571080</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>208P</t>
+  </si>
+  <si>
+    <t>WO61502</t>
+  </si>
+  <si>
+    <t>SH257620191080</t>
+  </si>
+  <si>
+    <t>BOL25721080</t>
+  </si>
+  <si>
+    <t>Memphis rail ramp, Lamar Avenue</t>
+  </si>
+  <si>
+    <t>Fairburn rail ramp, 6700 McLarin Rd</t>
+  </si>
+  <si>
+    <t>Fairburn</t>
+  </si>
+  <si>
+    <t>30213</t>
+  </si>
+  <si>
+    <t>1a0b146d-ebb8-4339-b5db-224595a551ee</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>38118</t>
+  </si>
+  <si>
+    <t>UNIT2407007</t>
+  </si>
+  <si>
+    <t>EVERDELUXE</t>
+  </si>
+  <si>
+    <t>0257-068ER</t>
+  </si>
+  <si>
+    <t>WO61405</t>
+  </si>
+  <si>
+    <t>SH24072019007</t>
+  </si>
+  <si>
+    <t>HarryPotter</t>
+  </si>
+  <si>
+    <t>Chiwan Container Terminal</t>
+  </si>
+  <si>
+    <t>Zhuhai Ave Jinwan Qu</t>
+  </si>
+  <si>
+    <t>Zhuhai Shi</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>519090</t>
+  </si>
+  <si>
+    <t>45958951-4a29-48ac-9ded-5f066e6d9eaf</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>UNIT2471075</t>
+  </si>
+  <si>
+    <t>WO61386</t>
+  </si>
+  <si>
+    <t>SH247620191075</t>
+  </si>
+  <si>
+    <t>BOL24721075</t>
+  </si>
+  <si>
+    <t>UNIT9502187</t>
+  </si>
+  <si>
+    <t>WO60832</t>
+  </si>
+  <si>
+    <t>SH950620192187</t>
+  </si>
+  <si>
+    <t>BOL95622187</t>
+  </si>
+  <si>
     <t>YMLU5543889</t>
   </si>
   <si>
@@ -152,12 +302,6 @@
     <t>test4235947</t>
   </si>
   <si>
-    <t>Black Pearl</t>
-  </si>
-  <si>
-    <t>208P</t>
-  </si>
-  <si>
     <t>WO59894</t>
   </si>
   <si>
@@ -167,36 +311,9 @@
     <t>BOL423998</t>
   </si>
   <si>
-    <t>Memphis rail ramp, Lamar Avenue</t>
-  </si>
-  <si>
-    <t>Fairburn rail ramp, 6700 McLarin Rd</t>
-  </si>
-  <si>
-    <t>Fairburn</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>30213</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>9e9e314e-f4f2-47e3-b73d-9682ff9661b8</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>38118</t>
-  </si>
-  <si>
     <t>UNIT4235952</t>
   </si>
   <si>
@@ -224,46 +341,31 @@
     <t>7f17c013-b184-46fb-a6c3-74f18e45089e</t>
   </si>
   <si>
-    <t>AOLL934026</t>
-  </si>
-  <si>
-    <t>WO60300</t>
-  </si>
-  <si>
-    <t>45454560724-1206</t>
-  </si>
-  <si>
-    <t>DTR Rail Ramp</t>
-  </si>
-  <si>
-    <t>Port of Chicago</t>
-  </si>
-  <si>
-    <t>3600 E 95th St</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>60617</t>
-  </si>
-  <si>
-    <t>ee678773-7c05-11e9-bdf4-42010a732002</t>
-  </si>
-  <si>
-    <t>7100 Dix St.</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>48209</t>
+    <t>UNIT1707008</t>
+  </si>
+  <si>
+    <t>WO61043</t>
+  </si>
+  <si>
+    <t>SH17072019008</t>
+  </si>
+  <si>
+    <t>BOLA17072019008</t>
+  </si>
+  <si>
+    <t>Pacific Container Terminal</t>
+  </si>
+  <si>
+    <t>7027e36b-23e1-415e-b7fe-b911f9eff762</t>
+  </si>
+  <si>
+    <t>Long Beach</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>90802</t>
   </si>
 </sst>
 </file>
@@ -318,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -421,626 +523,1306 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2"/>
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3"/>
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3"/>
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4"/>
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4"/>
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5"/>
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5"/>
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6"/>
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6"/>
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7"/>
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7"/>
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8"/>
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>16</v>
+      </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9"/>
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
         <v>16</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="L11" t="s">
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="M11" t="s">
+      <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
         <v>79</v>
       </c>
-      <c r="P11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="Q13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="R11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="T11" t="s">
+      <c r="J14"/>
+      <c r="K14" t="s">
         <v>82</v>
       </c>
-      <c r="U11" t="s">
+      <c r="L14" t="s">
         <v>83</v>
       </c>
-      <c r="V11" t="s">
-        <v>56</v>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>105</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" t="s">
+        <v>115</v>
+      </c>
+      <c r="T20" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" t="s">
+        <v>117</v>
+      </c>
+      <c r="V20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" t="s">
+        <v>116</v>
+      </c>
+      <c r="U21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V21" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
